--- a/Epidemiología/higado.xlsx
+++ b/Epidemiología/higado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiologia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiología\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E60607E-EA30-4D4D-A80E-178522808EA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D0D9E3-E230-4B2B-90EF-C0859CBD8657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="66">
   <si>
     <t>Sexo</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Europa, 2018</t>
   </si>
   <si>
-    <t>ECIS (EU+EFTA)</t>
-  </si>
-  <si>
     <t>ASR-E new</t>
   </si>
   <si>
@@ -227,6 +224,12 @@
   </si>
   <si>
     <t xml:space="preserve">MSCBS </t>
+  </si>
+  <si>
+    <t>ECIS (Europe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECIS </t>
   </si>
 </sst>
 </file>
@@ -289,12 +292,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -341,7 +350,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -419,6 +428,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1123,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F4DA2-4555-4318-B577-61845DD27555}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1140,14 +1164,14 @@
   <sheetData>
     <row r="1" spans="2:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>60</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
@@ -1158,7 +1182,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>24</v>
@@ -1167,10 +1191,10 @@
         <v>25</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
@@ -1199,29 +1223,29 @@
       <c r="B6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="34">
-        <v>46803</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34">
-        <v>18.2</v>
-      </c>
-      <c r="F6" s="32">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G6" s="27">
-        <v>12.8</v>
-      </c>
-      <c r="H6" s="27">
-        <v>19.2</v>
+      <c r="C6" s="36">
+        <v>55825</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36">
+        <v>15.5</v>
+      </c>
+      <c r="F6" s="37">
+        <v>8</v>
+      </c>
+      <c r="G6" s="38">
+        <v>11.7</v>
+      </c>
+      <c r="H6" s="38">
+        <v>17.7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="34">
         <v>4976</v>
@@ -1240,12 +1264,12 @@
         <v>22.5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="32">
         <v>4971</v>
@@ -1264,7 +1288,7 @@
         <v>22.1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
@@ -1281,7 +1305,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>24</v>
@@ -1290,10 +1314,10 @@
         <v>25</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
@@ -1322,29 +1346,29 @@
       <c r="B13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="35">
-        <v>20066</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28">
-        <v>7.5</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="C13" s="39">
+        <v>26641</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="40">
+        <v>6.9</v>
+      </c>
+      <c r="F13" s="40">
         <v>2.7</v>
       </c>
-      <c r="G13" s="28">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H13" s="28">
-        <v>6.6</v>
+      <c r="G13" s="40">
+        <v>4</v>
+      </c>
+      <c r="H13" s="40">
+        <v>6.3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="35">
         <v>1654</v>
@@ -1363,12 +1387,12 @@
         <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="27">
         <v>1624</v>
@@ -1387,7 +1411,7 @@
         <v>5.8</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
@@ -1401,7 +1425,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>24</v>
@@ -1410,10 +1434,10 @@
         <v>25</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
@@ -1442,29 +1466,29 @@
       <c r="B19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="27">
-        <v>66869</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27">
-        <v>12.8</v>
-      </c>
-      <c r="F19" s="27">
-        <v>5.6</v>
-      </c>
-      <c r="G19" s="27">
-        <v>8.1</v>
-      </c>
-      <c r="H19" s="27">
-        <v>12.3</v>
+      <c r="C19" s="38">
+        <v>82466</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38">
+        <v>11.1</v>
+      </c>
+      <c r="F19" s="38">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G19" s="38">
+        <v>7.4</v>
+      </c>
+      <c r="H19" s="38">
+        <v>11.3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="27">
         <v>6630</v>
@@ -1483,12 +1507,12 @@
         <v>13.6</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="27">
         <v>6595</v>
@@ -1507,27 +1531,27 @@
         <v>13.9</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
@@ -1564,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A55D492-D4A4-413C-8B30-82176E41C2CB}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H13" sqref="C13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1580,13 +1604,13 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
@@ -1597,7 +1621,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>24</v>
@@ -1606,10 +1630,10 @@
         <v>25</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
@@ -1638,29 +1662,29 @@
       <c r="B6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="27">
-        <v>40722</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28">
-        <v>15.9</v>
-      </c>
-      <c r="F6" s="28">
-        <v>7</v>
-      </c>
-      <c r="G6" s="28">
-        <v>10.6</v>
-      </c>
-      <c r="H6" s="28">
-        <v>17</v>
+      <c r="C6" s="38">
+        <v>50365</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="40">
+        <v>14</v>
+      </c>
+      <c r="F6" s="40">
+        <v>6.8</v>
+      </c>
+      <c r="G6" s="40">
+        <v>10.3</v>
+      </c>
+      <c r="H6" s="40">
+        <v>16.399999999999999</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="27">
         <v>3872</v>
@@ -1679,12 +1703,12 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="27">
         <v>3577</v>
@@ -1703,7 +1727,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
@@ -1720,7 +1744,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>24</v>
@@ -1729,10 +1753,10 @@
         <v>25</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
@@ -1761,29 +1785,29 @@
       <c r="B13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="27">
-        <v>19991</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27">
-        <v>7.5</v>
-      </c>
-      <c r="F13" s="27">
+      <c r="C13" s="38">
+        <v>27010</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38">
+        <v>7</v>
+      </c>
+      <c r="F13" s="38">
         <v>2.4</v>
       </c>
-      <c r="G13" s="28">
-        <v>3.7</v>
-      </c>
-      <c r="H13" s="28">
-        <v>6.4</v>
+      <c r="G13" s="40">
+        <v>3.8</v>
+      </c>
+      <c r="H13" s="40">
+        <v>6.3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="27">
         <v>1697</v>
@@ -1802,12 +1826,12 @@
         <v>5.8</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="27">
         <v>1564</v>
@@ -1826,7 +1850,7 @@
         <v>5.6</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
@@ -1837,7 +1861,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>24</v>
@@ -1846,10 +1870,10 @@
         <v>25</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
@@ -1878,29 +1902,29 @@
       <c r="B19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="27">
-        <v>60713</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27">
-        <v>11.6</v>
-      </c>
-      <c r="F19" s="27">
-        <v>4.5</v>
-      </c>
-      <c r="G19" s="28">
-        <v>6.9</v>
-      </c>
-      <c r="H19" s="28">
-        <v>11.1</v>
+      <c r="C19" s="38">
+        <v>77375</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38">
+        <v>10.4</v>
+      </c>
+      <c r="F19" s="38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G19" s="40">
+        <v>6.6</v>
+      </c>
+      <c r="H19" s="40">
+        <v>10.6</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="27">
         <v>5569</v>
@@ -1919,12 +1943,12 @@
         <v>11.3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="27">
         <v>5141</v>
@@ -1943,12 +1967,12 @@
         <v>10.7</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
@@ -2356,20 +2380,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01952B8-91AA-4663-B08A-9098432C8726}">
   <dimension ref="B2:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
@@ -2379,42 +2403,42 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Epidemiología/higado.xlsx
+++ b/Epidemiología/higado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiología\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D0D9E3-E230-4B2B-90EF-C0859CBD8657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19477BC-E0A2-4B8A-AFA0-24BC35856B05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1148,7 +1148,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+      <selection activeCell="F29" sqref="E29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1157,7 +1157,8 @@
     <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="24"/>
     <col min="4" max="4" width="4.5" style="24" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" style="24"/>
+    <col min="5" max="5" width="14.58203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="24"/>
     <col min="9" max="9" width="19.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.6640625" style="2"/>
   </cols>
@@ -1564,6 +1565,22 @@
       <c r="C29" s="24" t="str">
         <f>IF(SUM(C6,C13)=C19,"ok","REVISAR")</f>
         <v>ok</v>
+      </c>
+      <c r="E29" s="24">
+        <f>E8/E15</f>
+        <v>3.2089552238805967</v>
+      </c>
+      <c r="F29" s="24">
+        <f>F8/F15</f>
+        <v>4.416666666666667</v>
+      </c>
+      <c r="G29" s="24">
+        <f t="shared" ref="G29:H29" si="0">G8/G15</f>
+        <v>4.25</v>
+      </c>
+      <c r="H29" s="24">
+        <f t="shared" si="0"/>
+        <v>3.8103448275862073</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">

--- a/Epidemiología/higado.xlsx
+++ b/Epidemiología/higado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiología\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19477BC-E0A2-4B8A-AFA0-24BC35856B05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08DEAE9-EE1E-49E9-8341-F2FA1699A20B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
   <si>
     <t>Sexo</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>rank</t>
-  </si>
-  <si>
-    <t>higado</t>
   </si>
   <si>
     <t xml:space="preserve">MSCBS </t>
@@ -350,7 +347,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -395,9 +392,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1147,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F4DA2-4555-4318-B577-61845DD27555}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F29" sqref="E29:F29"/>
     </sheetView>
   </sheetViews>
@@ -1155,137 +1149,137 @@
   <cols>
     <col min="1" max="1" width="10.6640625" style="2"/>
     <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="24"/>
-    <col min="4" max="4" width="4.5" style="24" customWidth="1"/>
-    <col min="5" max="5" width="14.58203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="24"/>
+    <col min="3" max="3" width="10.83203125" style="23"/>
+    <col min="4" max="4" width="4.5" style="23" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="23"/>
     <col min="9" max="9" width="19.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>596574</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>5</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>15.5</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>13.9</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>55825</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35">
         <v>15.5</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="36">
         <v>8</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="37">
         <v>11.7</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="37">
         <v>17.7</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="33">
+        <v>4976</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33">
+        <v>21.9</v>
+      </c>
+      <c r="F7" s="31">
+        <v>10.9</v>
+      </c>
+      <c r="G7" s="26">
+        <v>15.7</v>
+      </c>
+      <c r="H7" s="26">
+        <v>22.5</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="34">
-        <v>4976</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34">
-        <v>21.9</v>
-      </c>
-      <c r="F7" s="32">
-        <v>10.9</v>
-      </c>
-      <c r="G7" s="27">
-        <v>15.7</v>
-      </c>
-      <c r="H7" s="27">
-        <v>22.5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>4971</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33">
+      <c r="D8" s="31"/>
+      <c r="E8" s="32">
         <v>21.5</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>10.6</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>15.3</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>22.1</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1293,122 +1287,122 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <v>244506</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <v>9</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>6.5</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="38">
         <v>26641</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="40">
+      <c r="D13" s="37"/>
+      <c r="E13" s="39">
         <v>6.9</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="39">
         <v>2.7</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <v>4</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="39">
         <v>6.3</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="34">
+        <v>1654</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27">
+        <v>7</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3.6</v>
+      </c>
+      <c r="H14" s="27">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="35">
-        <v>1654</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28">
-        <v>7</v>
-      </c>
-      <c r="F14" s="28">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="26">
+        <v>1624</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27">
+        <v>6.7</v>
+      </c>
+      <c r="F15" s="27">
         <v>2.4</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G15" s="27">
         <v>3.6</v>
       </c>
-      <c r="H14" s="28">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="27">
-        <v>1624</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28">
-        <v>6.7</v>
-      </c>
-      <c r="F15" s="28">
-        <v>2.4</v>
-      </c>
-      <c r="G15" s="28">
-        <v>3.6</v>
-      </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <v>5.8</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -1416,119 +1410,119 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <v>841080</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <v>6</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>11</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="37">
         <v>82466</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37">
         <v>11.1</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="37">
         <v>7.4</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="37">
         <v>11.3</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="26">
+        <v>6630</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26">
+        <v>14.3</v>
+      </c>
+      <c r="F20" s="26">
+        <v>6.5</v>
+      </c>
+      <c r="G20" s="27">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H20" s="26">
+        <v>13.6</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="27">
-        <v>6630</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27">
-        <v>14.3</v>
-      </c>
-      <c r="F20" s="27">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="26">
+        <v>6595</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27">
+        <v>14</v>
+      </c>
+      <c r="F21" s="27">
         <v>6.5</v>
       </c>
-      <c r="G20" s="28">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H20" s="27">
-        <v>13.6</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="27">
-        <v>6595</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28">
-        <v>14</v>
-      </c>
-      <c r="F21" s="28">
-        <v>6.5</v>
-      </c>
-      <c r="G21" s="28">
+      <c r="G21" s="27">
         <v>9.4</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="27">
         <v>13.9</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -1556,41 +1550,41 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C28" s="24" t="str">
+      <c r="C28" s="23" t="str">
         <f>IF(SUM(C5,C12)=C18,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C29" s="24" t="str">
+      <c r="C29" s="23" t="str">
         <f>IF(SUM(C6,C13)=C19,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="23">
         <f>E8/E15</f>
         <v>3.2089552238805967</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="23">
         <f>F8/F15</f>
         <v>4.416666666666667</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="23">
         <f t="shared" ref="G29:H29" si="0">G8/G15</f>
         <v>4.25</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="23">
         <f t="shared" si="0"/>
         <v>3.8103448275862073</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C30" s="24" t="str">
+      <c r="C30" s="23" t="str">
         <f>IF(SUM(C7,C14)=C20,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="24" t="str">
+      <c r="C31" s="23" t="str">
         <f>IF(SUM(C8,C15)=C21,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
@@ -1603,415 +1597,383 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A55D492-D4A4-413C-8B30-82176E41C2CB}">
-  <dimension ref="B1:I31"/>
+  <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="C13:H13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="2"/>
     <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="24"/>
-    <col min="4" max="4" width="5.9140625" style="24" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" style="24"/>
-    <col min="9" max="16384" width="10.6640625" style="2"/>
+    <col min="3" max="7" width="10.83203125" style="23"/>
+    <col min="8" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="23" t="s">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="26">
+        <v>548375</v>
+      </c>
+      <c r="D5" s="27">
+        <v>14.2</v>
+      </c>
+      <c r="E5" s="27">
+        <v>12.7</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="37">
+        <v>50365</v>
+      </c>
+      <c r="D6" s="39">
+        <v>14</v>
+      </c>
+      <c r="E6" s="39">
+        <v>6.8</v>
+      </c>
+      <c r="F6" s="39">
+        <v>10.3</v>
+      </c>
+      <c r="G6" s="39">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="26">
+        <v>3872</v>
+      </c>
+      <c r="D7" s="27">
+        <v>17</v>
+      </c>
+      <c r="E7" s="27">
+        <v>7.6</v>
+      </c>
+      <c r="F7" s="27">
+        <v>11.5</v>
+      </c>
+      <c r="G7" s="27">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="26">
+        <v>3577</v>
+      </c>
+      <c r="D8" s="27">
+        <v>15.6</v>
+      </c>
+      <c r="E8" s="27">
+        <v>7</v>
+      </c>
+      <c r="F8" s="27">
+        <v>10.7</v>
+      </c>
+      <c r="G8" s="27">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="26" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="28"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="28"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="25" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="27">
-        <v>548375</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="C12" s="26">
+        <v>233256</v>
+      </c>
+      <c r="D12" s="27">
+        <v>6.2</v>
+      </c>
+      <c r="E12" s="27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="37">
+        <v>27010</v>
+      </c>
+      <c r="D13" s="37">
+        <v>7</v>
+      </c>
+      <c r="E13" s="37">
+        <v>2.4</v>
+      </c>
+      <c r="F13" s="39">
+        <v>3.8</v>
+      </c>
+      <c r="G13" s="39">
+        <v>6.3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="26">
+        <v>1697</v>
+      </c>
+      <c r="D14" s="27">
+        <v>7.2</v>
+      </c>
+      <c r="E14" s="27">
         <v>2</v>
       </c>
-      <c r="E5" s="28">
-        <v>14.2</v>
-      </c>
-      <c r="F5" s="28">
-        <v>12.7</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="2" t="s">
+      <c r="F14" s="27">
+        <v>3.3</v>
+      </c>
+      <c r="G14" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="26">
+        <v>1564</v>
+      </c>
+      <c r="D15" s="27">
+        <v>6.6</v>
+      </c>
+      <c r="E15" s="27">
+        <v>2</v>
+      </c>
+      <c r="F15" s="27">
+        <v>3.2</v>
+      </c>
+      <c r="G15" s="27">
+        <v>5.6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="26">
+        <v>781631</v>
+      </c>
+      <c r="D18" s="26">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E18" s="26">
+        <v>8.5</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="38">
-        <v>50365</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="40">
-        <v>14</v>
-      </c>
-      <c r="F6" s="40">
-        <v>6.8</v>
-      </c>
-      <c r="G6" s="40">
-        <v>10.3</v>
-      </c>
-      <c r="H6" s="40">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="C19" s="37">
+        <v>77375</v>
+      </c>
+      <c r="D19" s="37">
+        <v>10.4</v>
+      </c>
+      <c r="E19" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F19" s="39">
+        <v>6.6</v>
+      </c>
+      <c r="G19" s="39">
+        <v>10.6</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="26">
+        <v>5569</v>
+      </c>
+      <c r="D20" s="26">
+        <v>12</v>
+      </c>
+      <c r="E20" s="26">
+        <v>4.7</v>
+      </c>
+      <c r="F20" s="27">
+        <v>7.1</v>
+      </c>
+      <c r="G20" s="27">
+        <v>11.3</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="25" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="27">
-        <v>3872</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28">
-        <v>17</v>
-      </c>
-      <c r="F7" s="28">
-        <v>7.6</v>
-      </c>
-      <c r="G7" s="28">
-        <v>11.5</v>
-      </c>
-      <c r="H7" s="28">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="27">
-        <v>3577</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28">
-        <v>15.6</v>
-      </c>
-      <c r="F8" s="28">
-        <v>7</v>
-      </c>
-      <c r="G8" s="28">
+      <c r="C21" s="26">
+        <v>5141</v>
+      </c>
+      <c r="D21" s="27">
+        <v>11</v>
+      </c>
+      <c r="E21" s="27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F21" s="27">
+        <v>6.7</v>
+      </c>
+      <c r="G21" s="27">
         <v>10.7</v>
       </c>
-      <c r="H8" s="28">
-        <v>17</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="29"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="27">
-        <v>233256</v>
-      </c>
-      <c r="D12" s="27">
-        <v>6</v>
-      </c>
-      <c r="E12" s="28">
-        <v>6.2</v>
-      </c>
-      <c r="F12" s="28">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="38">
-        <v>27010</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38">
-        <v>7</v>
-      </c>
-      <c r="F13" s="38">
-        <v>2.4</v>
-      </c>
-      <c r="G13" s="40">
-        <v>3.8</v>
-      </c>
-      <c r="H13" s="40">
-        <v>6.3</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="27">
-        <v>1697</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28">
-        <v>7.2</v>
-      </c>
-      <c r="F14" s="28">
-        <v>2</v>
-      </c>
-      <c r="G14" s="28">
-        <v>3.3</v>
-      </c>
-      <c r="H14" s="28">
-        <v>5.8</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="27">
-        <v>1564</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28">
-        <v>6.6</v>
-      </c>
-      <c r="F15" s="28">
-        <v>2</v>
-      </c>
-      <c r="G15" s="28">
-        <v>3.2</v>
-      </c>
-      <c r="H15" s="28">
-        <v>5.6</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="27">
-        <v>781631</v>
-      </c>
-      <c r="D18" s="27">
-        <v>4</v>
-      </c>
-      <c r="E18" s="27">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F18" s="27">
-        <v>8.5</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="38">
-        <v>77375</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38">
-        <v>10.4</v>
-      </c>
-      <c r="F19" s="38">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G19" s="40">
-        <v>6.6</v>
-      </c>
-      <c r="H19" s="40">
-        <v>10.6</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="27">
-        <v>5569</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27">
-        <v>12</v>
-      </c>
-      <c r="F20" s="27">
-        <v>4.7</v>
-      </c>
-      <c r="G20" s="28">
-        <v>7.1</v>
-      </c>
-      <c r="H20" s="28">
-        <v>11.3</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="27">
-        <v>5141</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28">
-        <v>11</v>
-      </c>
-      <c r="F21" s="28">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G21" s="28">
-        <v>6.7</v>
-      </c>
-      <c r="H21" s="28">
-        <v>10.7</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C28" s="24" t="str">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C28" s="23" t="str">
         <f>IF(SUM(C5,C12)=C18,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C29" s="24" t="str">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C29" s="23" t="str">
         <f t="shared" ref="C29:C31" si="0">IF(SUM(C6,C13)=C19,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C30" s="24" t="str">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C30" s="23" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="24" t="str">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C31" s="23" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
       </c>
